--- a/outputFile/lplm3.xlsx
+++ b/outputFile/lplm3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lplm_only</t>
+          <t>lplm_v3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lplm_a3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lplm_j3</t>
         </is>
       </c>
     </row>
@@ -446,7 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.5531914893617021, 17], [0.6, 11], [0.6875, 4]]</t>
+          <t>[0.558139534883721, 14]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[0.6, 11]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[0.5641025641025642, 11]</t>
         </is>
       </c>
     </row>
@@ -456,7 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.6666666666666667, 9], [0.7272727272727272, 4], [0.6428571428571428, 2]]</t>
+          <t>[0.7058823529411765, 5]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[0.5882352941176471, 7]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[0.625, 5]</t>
         </is>
       </c>
     </row>
@@ -466,7 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.6875, 4], [0.7142857142857143, 1], [0.3, 0]]</t>
+          <t>[0.5384615384615384, 2]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.6666666666666667, 1]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.5925925925925927, 2]</t>
         </is>
       </c>
     </row>
